--- a/PointlessWaymarksTests/IronwoodTestContent/YumaPointImport.xlsx
+++ b/PointlessWaymarksTests/IronwoodTestContent/YumaPointImport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PointlessWaymarksCms05\PointlessWaymarksTests\IronwoodTestContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6742B3-77E9-4FAB-B009-212152347B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE5A99-DFF8-4F55-AF78-0F523BDEDB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A502E4A2-19B3-43B1-97B2-6120C4E9A4F5}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="25600" windowHeight="13760" xr2:uid="{A502E4A2-19B3-43B1-97B2-6120C4E9A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,13 +255,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -634,6 +627,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -648,59 +648,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1208738D-823F-465D-AA3D-EB5F2F01FEA0}" name="Table1" displayName="Table1" ref="A1:AK2" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1208738D-823F-465D-AA3D-EB5F2F01FEA0}" name="Table1" displayName="Table1" ref="A1:AK2" totalsRowShown="0" dataDxfId="37">
   <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{D2E58667-7262-4F8A-8CBB-4AF358AB7A7C}" name="FEATURE_ID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{11E65206-D51B-40D1-957D-D316CAFD2787}" name="FEATURE_NAME" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{FDF47325-247C-43BF-895C-E73292CC8D78}" name="FEATURE_CLASS" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{9D62ADD6-2337-4335-BA17-604B3979C5A7}" name="STATE_ALPHA" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{C6D1D603-2797-4243-BF10-DAB2B81CCE1D}" name="STATE_NUMERIC" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{7D0D4BE9-0AB1-48CE-99DD-AE04EFA9AA79}" name="COUNTY_NAME" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{E8C29E4E-09E0-45E2-8463-ED9C0E8C2449}" name="COUNTY_NUMERIC" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{4828066A-6EF8-4EBC-85CD-BE4F87BEAD4A}" name="PRIMARY_LAT_DMS" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{E0509827-3112-48B6-973A-8D777F1EE359}" name="PRIM_LONG_DMS" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{D80AA723-8937-42AC-B3C9-E07111556009}" name="PRIM_LAT_DEC" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{BD57E42C-4DE9-4BBB-A7AB-4DFFD619076A}" name="PRIM_LONG_DEC" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{D7898E1C-2DCB-40E7-AD40-FA121B021698}" name="SOURCE_LAT_DMS" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{E564D70C-DFE5-4CDC-A855-7CAFCD54BA99}" name="SOURCE_LONG_DMS" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{96E90ABF-38F0-4D4E-A783-4601C2F9FA62}" name="SOURCE_LAT_DEC" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{C87BF9FC-F238-4CA8-AFF8-91541EC9C60D}" name="SOURCE_LONG_DEC" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{153857A4-41D9-4FCD-A0A7-45712CD94DDA}" name="ELEV_IN_M" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{9D62C92A-0DA1-44EC-AFA5-66BB6C44A975}" name="ELEV_IN_FT" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{D6A168FE-46ED-4827-8721-43B917D8857C}" name="MAP_NAME" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{1D8AB82A-6631-4B9D-99A8-A5E406A95200}" name="DATE_CREATED" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{4D75BFFB-B2B9-4C59-B8DD-08ED5DCF56D3}" name="DATE_EDITED" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{D776A8A8-1088-4B22-92E7-A967C7ACA1E6}" name="NewContentType" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{BCBF2563-27DE-4A45-9009-7517692DA782}" name="Title" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{D2E58667-7262-4F8A-8CBB-4AF358AB7A7C}" name="FEATURE_ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{11E65206-D51B-40D1-957D-D316CAFD2787}" name="FEATURE_NAME" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{FDF47325-247C-43BF-895C-E73292CC8D78}" name="FEATURE_CLASS" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{9D62ADD6-2337-4335-BA17-604B3979C5A7}" name="STATE_ALPHA" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C6D1D603-2797-4243-BF10-DAB2B81CCE1D}" name="STATE_NUMERIC" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{7D0D4BE9-0AB1-48CE-99DD-AE04EFA9AA79}" name="COUNTY_NAME" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{E8C29E4E-09E0-45E2-8463-ED9C0E8C2449}" name="COUNTY_NUMERIC" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{4828066A-6EF8-4EBC-85CD-BE4F87BEAD4A}" name="PRIMARY_LAT_DMS" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{E0509827-3112-48B6-973A-8D777F1EE359}" name="PRIM_LONG_DMS" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{D80AA723-8937-42AC-B3C9-E07111556009}" name="PRIM_LAT_DEC" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{BD57E42C-4DE9-4BBB-A7AB-4DFFD619076A}" name="PRIM_LONG_DEC" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{D7898E1C-2DCB-40E7-AD40-FA121B021698}" name="SOURCE_LAT_DMS" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{E564D70C-DFE5-4CDC-A855-7CAFCD54BA99}" name="SOURCE_LONG_DMS" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{96E90ABF-38F0-4D4E-A783-4601C2F9FA62}" name="SOURCE_LAT_DEC" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{C87BF9FC-F238-4CA8-AFF8-91541EC9C60D}" name="SOURCE_LONG_DEC" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{153857A4-41D9-4FCD-A0A7-45712CD94DDA}" name="ELEV_IN_M" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{9D62C92A-0DA1-44EC-AFA5-66BB6C44A975}" name="ELEV_IN_FT" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{D6A168FE-46ED-4827-8721-43B917D8857C}" name="MAP_NAME" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{1D8AB82A-6631-4B9D-99A8-A5E406A95200}" name="DATE_CREATED" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{4D75BFFB-B2B9-4C59-B8DD-08ED5DCF56D3}" name="DATE_EDITED" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{D776A8A8-1088-4B22-92E7-A967C7ACA1E6}" name="NewContentType" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{BCBF2563-27DE-4A45-9009-7517692DA782}" name="Title" dataDxfId="15">
       <calculatedColumnFormula>B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1B009923-0625-4FAC-B7F5-DCE848005123}" name="Slug" dataDxfId="15">
+    <tableColumn id="23" xr3:uid="{1B009923-0625-4FAC-B7F5-DCE848005123}" name="Slug" dataDxfId="14">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(V2), " ", "-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{45265D90-DD2D-4207-B91D-9163A9B19D74}" name="BodyContent" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{80C4B639-0A9E-4D97-B29E-A7F8DDA9B0B3}" name="BodyContentFormat" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{85E3548B-666A-4B25-B156-AFF5123DE955}" name="UpdateNotesFormat" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{E609B391-60DB-4FD0-BA56-92ECCFD26CDC}" name="Latitude" dataDxfId="11">
+    <tableColumn id="24" xr3:uid="{45265D90-DD2D-4207-B91D-9163A9B19D74}" name="BodyContent" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{80C4B639-0A9E-4D97-B29E-A7F8DDA9B0B3}" name="BodyContentFormat" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{85E3548B-666A-4B25-B156-AFF5123DE955}" name="UpdateNotesFormat" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{E609B391-60DB-4FD0-BA56-92ECCFD26CDC}" name="Latitude" dataDxfId="10">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{3EB02439-D402-4820-A58D-32055C4FB187}" name="Longitude" dataDxfId="10">
-      <calculatedColumnFormula>J2</calculatedColumnFormula>
+    <tableColumn id="28" xr3:uid="{3EB02439-D402-4820-A58D-32055C4FB187}" name="Longitude" dataDxfId="9">
+      <calculatedColumnFormula>K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{57726F3C-3D0A-4F88-8A54-44F1D05E6C01}" name="Elevation" dataDxfId="9">
+    <tableColumn id="29" xr3:uid="{57726F3C-3D0A-4F88-8A54-44F1D05E6C01}" name="Elevation" dataDxfId="8">
       <calculatedColumnFormula>Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{8F20A88D-6858-45A4-8E38-F19B00355AE2}" name="Folder" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{3EC3ADE0-E440-4A7E-A232-87920FE0EF97}" name="ShowInMainSiteFeed" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{ED042FF5-C765-41B2-A54A-1095F3ED4444}" name="Summary" dataDxfId="6">
+    <tableColumn id="30" xr3:uid="{8F20A88D-6858-45A4-8E38-F19B00355AE2}" name="Folder" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{3EC3ADE0-E440-4A7E-A232-87920FE0EF97}" name="ShowInMainSiteFeed" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{ED042FF5-C765-41B2-A54A-1095F3ED4444}" name="Summary" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE(B2,", ",F2," County, ",D2,"."," USGS 7.5' Map: ", R2,".")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{83B88F62-B46F-4CED-A530-3B101E8CBBFA}" name="Tags" dataDxfId="5">
+    <tableColumn id="33" xr3:uid="{83B88F62-B46F-4CED-A530-3B101E8CBBFA}" name="Tags" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT("grand canyon, ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{6B0E8F35-25DB-4BD6-93F3-2E2E8DBACA78}" name="CreatedBy" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{2CCAFA83-E69E-4E91-92D8-DF4C6DC8F9FC}" name="CreatedOn" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{DEE1C7CE-9A12-46E0-B3F8-8B00D65FFA10}" name="UpdateContentFormat" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{83A7D6D9-9F51-4C21-A2CB-179160B8B0D4}" name="PointDetail 1" dataDxfId="1">
+    <tableColumn id="34" xr3:uid="{6B0E8F35-25DB-4BD6-93F3-2E2E8DBACA78}" name="CreatedBy" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{2CCAFA83-E69E-4E91-92D8-DF4C6DC8F9FC}" name="CreatedOn" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{DEE1C7CE-9A12-46E0-B3F8-8B00D65FFA10}" name="UpdateContentFormat" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{83A7D6D9-9F51-4C21-A2CB-179160B8B0D4}" name="PointDetail 1" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'.","""}")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5FEDEF-5A8E-421A-8857-D6C400357593}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,11 +1236,11 @@
         <v>36.079982299999998</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" ref="AB2" si="3">J2</f>
-        <v>36.079982299999998</v>
+        <f>K2</f>
+        <v>-112.229061</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" ref="AC2" si="4">Q2</f>
+        <f t="shared" ref="AC2" si="3">Q2</f>
         <v>6627</v>
       </c>
       <c r="AD2" s="2" t="s">
@@ -1250,11 +1250,11 @@
         <v>0</v>
       </c>
       <c r="AF2" s="2" t="str">
-        <f t="shared" ref="AF2" si="5">CONCATENATE(B2,", ",F2," County, ",D2,"."," USGS 7.5' Map: ", R2,".")</f>
+        <f t="shared" ref="AF2" si="4">CONCATENATE(B2,", ",F2," County, ",D2,"."," USGS 7.5' Map: ", R2,".")</f>
         <v>Yuma Point, Coconino County, AZ. USGS 7.5' Map: Grand Canyon.</v>
       </c>
       <c r="AG2" s="2" t="str">
-        <f t="shared" ref="AG2" si="6">_xlfn.CONCAT("grand canyon, ", B2)</f>
+        <f t="shared" ref="AG2" si="5">_xlfn.CONCAT("grand canyon, ", B2)</f>
         <v>grand canyon, Yuma Point</v>
       </c>
       <c r="AH2" s="2" t="s">
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="5" t="str">
-        <f t="shared" ref="AK2" si="7">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'.","""}")</f>
+        <f t="shared" ref="AK2" si="6">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'.","""}")</f>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:14119, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6627'."}</v>
       </c>
     </row>
